--- a/Week 4/Day 2/assignment(ahmed Fathy)  2).xlsx
+++ b/Week 4/Day 2/assignment(ahmed Fathy)  2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://docs.lighting.com/personal/eman_kamal_signify_com/Documents/Desktop/Ahmed Fathy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilti\Documents\GitHub\Data-Analysis\Week 4\Day 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{18BDCE71-D546-441E-A12A-916E593799A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E32FBF9-45B4-46D3-B1B4-F8F5090F8C73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A427708E-EB9D-48E8-A22F-A443803557DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Bonus=salary *2%</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -205,10 +208,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="000\-00\-0000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="000\-00\-0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -288,245 +291,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -544,7 +330,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -558,6 +344,37 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -577,7 +394,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -593,6 +410,37 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -612,7 +460,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -628,6 +476,37 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -647,7 +526,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -663,6 +542,37 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -682,7 +592,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -698,6 +608,37 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ [$ج.م.‏-C01];[Red]\-#,##0.00\ [$ج.م.‏-C01]"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -717,7 +658,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -748,7 +689,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -905,6 +846,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -917,13 +865,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -933,19 +920,34 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -962,17 +964,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E34C6A68-2A9E-49F9-A83E-9AA52DC9CC2A}" name="Table1" displayName="Table1" ref="C3:J13" totalsRowCount="1" headerRowDxfId="6" dataDxfId="18" totalsRowDxfId="5" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19" headerRowCellStyle="Good" dataCellStyle="Good" totalsRowCellStyle="Good">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E34C6A68-2A9E-49F9-A83E-9AA52DC9CC2A}" name="Table1" displayName="Table1" ref="C3:J13" totalsRowCount="1" headerRowDxfId="21" dataDxfId="19" totalsRowDxfId="17" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="16" headerRowCellStyle="Good" dataCellStyle="Good" totalsRowCellStyle="Good">
   <autoFilter ref="C3:J12" xr:uid="{E34C6A68-2A9E-49F9-A83E-9AA52DC9CC2A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6AFFE926-EE0A-4D2A-94CD-D3990C505C3D}" name="PHONE" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="2" xr3:uid="{1132A6EC-950A-4630-A08A-1B68FF88A6B2}" name="DEPARTMENT" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="3" xr3:uid="{BAC81B3C-A331-4AE6-A53A-C700659910B7}" name="DATE OF HIRE" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="4" xr3:uid="{E4D3DA4C-A284-4E93-879E-B4B48502928B}" name="SALARY" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="11" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="5" xr3:uid="{C66ED6F3-3579-44A3-B7CF-3F24B5E5C094}" name="BOUNS" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="10" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="6" xr3:uid="{D8F0226A-F384-41AF-9E85-CD8E94345AA5}" name="TAX" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="9" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="7" xr3:uid="{721311D7-346B-4A10-AA9F-E7D804B3B78C}" name="INSURANCE" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="8" dataCellStyle="Good" totalsRowCellStyle="Good"/>
-    <tableColumn id="8" xr3:uid="{4F7D55AC-A5DE-46E4-8D8C-0F7E58015894}" name="TOTAL " totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="7" dataCellStyle="Good" totalsRowCellStyle="Good">
+    <tableColumn id="1" xr3:uid="{6AFFE926-EE0A-4D2A-94CD-D3990C505C3D}" name="PHONE" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="2" xr3:uid="{1132A6EC-950A-4630-A08A-1B68FF88A6B2}" name="DEPARTMENT" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="3" xr3:uid="{BAC81B3C-A331-4AE6-A53A-C700659910B7}" name="DATE OF HIRE" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="4" xr3:uid="{E4D3DA4C-A284-4E93-879E-B4B48502928B}" name="SALARY" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="5" xr3:uid="{C66ED6F3-3579-44A3-B7CF-3F24B5E5C094}" name="BOUNS" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="6" xr3:uid="{D8F0226A-F384-41AF-9E85-CD8E94345AA5}" name="TAX" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="7" xr3:uid="{721311D7-346B-4A10-AA9F-E7D804B3B78C}" name="INSURANCE" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Good" totalsRowCellStyle="Good"/>
+    <tableColumn id="8" xr3:uid="{4F7D55AC-A5DE-46E4-8D8C-0F7E58015894}" name="TOTAL " totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Good" totalsRowCellStyle="Good">
       <calculatedColumnFormula>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1246,7 +1248,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,22 +1293,22 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1320,6 +1322,9 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1329,7 +1334,7 @@
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1338,22 +1343,22 @@
       <c r="E4" s="3">
         <v>45834</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>10000</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f>F4*2%</f>
         <v>200</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>51</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <f t="shared" ref="I4:I11" si="0">(F4+G4-H4)*1.5%</f>
         <v>152.23499999999999</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>9996.7649999999994</v>
       </c>
@@ -1368,7 +1373,7 @@
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1377,22 +1382,22 @@
       <c r="E5" s="3">
         <v>45677</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>9000</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f t="shared" ref="G5:G11" si="1">F5*2%</f>
         <v>180</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>45.9</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>137.01150000000001</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>8997.0884999999998</v>
       </c>
@@ -1407,7 +1412,7 @@
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1416,22 +1421,22 @@
       <c r="E6" s="3">
         <v>44849</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>12000</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>61.2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <f t="shared" si="0"/>
         <v>182.68199999999999</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>11996.117999999999</v>
       </c>
@@ -1446,7 +1451,7 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1455,22 +1460,22 @@
       <c r="E7" s="3">
         <v>44776</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>25000</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>127.5</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>380.58749999999998</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>24991.912499999999</v>
       </c>
@@ -1485,7 +1490,7 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1494,22 +1499,22 @@
       <c r="E8" s="3">
         <v>44467</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>10000</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>51</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>152.23499999999999</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>9996.7649999999994</v>
       </c>
@@ -1521,7 +1526,7 @@
       <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1530,22 +1535,22 @@
       <c r="E9" s="3">
         <v>44428</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>8000</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>40.800000000000004</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>121.788</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>7997.4120000000003</v>
       </c>
@@ -1557,7 +1562,7 @@
       <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1566,22 +1571,22 @@
       <c r="E10" s="3">
         <v>44407</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>20000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>102</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
         <v>304.46999999999997</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>19993.53</v>
       </c>
@@ -1593,7 +1598,7 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1602,22 +1607,22 @@
       <c r="E11" s="3">
         <v>43926</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>20000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f>((Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]])/2*0.01)</f>
         <v>102</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>304.46999999999997</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f>Table1[[#This Row],[SALARY]]+Table1[[#This Row],[BOUNS]]-Table1[[#This Row],[TAX]]-Table1[[#This Row],[INSURANCE]]</f>
         <v>19993.53</v>
       </c>
@@ -1630,37 +1635,37 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f>SUBTOTAL(109,Table1[SALARY])</f>
         <v>114000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <f>SUBTOTAL(109,Table1[BOUNS])</f>
         <v>2280</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <f>SUBTOTAL(109,Table1[TAX])</f>
         <v>581.40000000000009</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <f>SUBTOTAL(109,Table1[INSURANCE])</f>
         <v>1735.479</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <f>SUBTOTAL(109,Table1[[TOTAL ]])</f>
         <v>113963.12099999998</v>
       </c>
@@ -1673,23 +1678,23 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <f>COUNT(F4:F11)</f>
         <v>8</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <f t="shared" ref="G14:I14" si="2">COUNT(G4:G11)</f>
         <v>8</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <f>COUNT(J4:J11)</f>
         <v>8</v>
       </c>
@@ -1702,23 +1707,23 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <f>MIN(F4:F11)</f>
         <v>8000</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <f t="shared" ref="G15:J15" si="3">MIN(G4:G11)</f>
         <v>160</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <f t="shared" si="3"/>
         <v>40.800000000000004</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <f t="shared" si="3"/>
         <v>121.788</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <f t="shared" si="3"/>
         <v>7997.4120000000003</v>
       </c>
@@ -1731,23 +1736,23 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <f>MAX(F4:F11)</f>
         <v>25000</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <f t="shared" ref="G16:J16" si="4">MAX(G4:G11)</f>
         <v>500</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <f t="shared" si="4"/>
         <v>127.5</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <f t="shared" si="4"/>
         <v>380.58749999999998</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <f t="shared" si="4"/>
         <v>24991.912499999999</v>
       </c>
@@ -1760,23 +1765,23 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <f>AVERAGE(F4:F11)</f>
         <v>14250</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <f t="shared" ref="G17:J17" si="5">AVERAGE(G4:G11)</f>
         <v>285</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <f t="shared" si="5"/>
         <v>72.675000000000011</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <f t="shared" si="5"/>
         <v>216.93487500000001</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <f t="shared" si="5"/>
         <v>14245.390124999998</v>
       </c>
@@ -1789,23 +1794,23 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <f>F16-F15</f>
         <v>17000</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <f t="shared" ref="G18:J18" si="6">G16-G15</f>
         <v>340</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <f t="shared" si="6"/>
         <v>86.699999999999989</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <f t="shared" si="6"/>
         <v>258.79949999999997</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <f t="shared" si="6"/>
         <v>16994.500499999998</v>
       </c>
@@ -1818,23 +1823,23 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <f>_xlfn.STDEV.S(F4:F11)</f>
         <v>6430.9519401985008</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <f t="shared" ref="G19:J19" si="7">_xlfn.STDEV.S(G4:G11)</f>
         <v>128.61903880397</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <f t="shared" si="7"/>
         <v>32.797854895012328</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <f t="shared" si="7"/>
         <v>97.901596861611793</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <f t="shared" si="7"/>
         <v>6428.8715272458467</v>
       </c>
@@ -1847,23 +1852,23 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <f>QUARTILE(F4:F11,1)</f>
         <v>9750</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <f t="shared" ref="G20:J20" si="8">QUARTILE(G4:G11,1)</f>
         <v>195</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <f t="shared" si="8"/>
         <v>49.725000000000001</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <f t="shared" si="8"/>
         <v>148.429125</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <f t="shared" si="8"/>
         <v>9746.8458749999991</v>
       </c>
@@ -1876,23 +1881,23 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <f>QUARTILE(F4:F11,2)</f>
         <v>11000</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="9">
         <f t="shared" ref="G21:J21" si="9">QUARTILE(G4:G11,2)</f>
         <v>220</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <f t="shared" si="9"/>
         <v>56.1</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <f t="shared" si="9"/>
         <v>167.45849999999999</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <f t="shared" si="9"/>
         <v>10996.441499999999</v>
       </c>
@@ -1905,23 +1910,23 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <f>QUARTILE(F4:F11,3)</f>
         <v>20000</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <f t="shared" ref="G22:J22" si="10">QUARTILE(G4:G11,3)</f>
         <v>400</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <f t="shared" si="10"/>
         <v>304.46999999999997</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <f t="shared" si="10"/>
         <v>19993.53</v>
       </c>
@@ -1934,23 +1939,23 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <f>F22-F20</f>
         <v>10250</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <f t="shared" ref="G23:J23" si="11">G22-G20</f>
         <v>205</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <f t="shared" si="11"/>
         <v>52.274999999999999</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <f t="shared" si="11"/>
         <v>156.04087499999997</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <f t="shared" si="11"/>
         <v>10246.684125</v>
       </c>
@@ -1963,23 +1968,23 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f>F20-1.5*F23</f>
         <v>-5625</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f t="shared" ref="G24:J24" si="12">G20-1.5*G23</f>
         <v>-112.5</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f t="shared" si="12"/>
         <v>-28.687499999999993</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <f t="shared" si="12"/>
         <v>-85.632187499999958</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="9">
         <f t="shared" si="12"/>
         <v>-5623.1803125000006</v>
       </c>
@@ -1992,23 +1997,23 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <f>F22+F23*1.5</f>
         <v>35375</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <f t="shared" ref="G25:J25" si="13">G22+G23*1.5</f>
         <v>707.5</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <f t="shared" si="13"/>
         <v>180.41249999999999</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <f t="shared" si="13"/>
         <v>538.5313124999999</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <f t="shared" si="13"/>
         <v>35363.556187499998</v>
       </c>
